--- a/Public/report/excel/client_ywl_20160101_20160430.xlsx
+++ b/Public/report/excel/client_ywl_20160101_20160430.xlsx
@@ -2122,22 +2122,22 @@
         <v>70</v>
       </c>
       <c r="E39" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F39" s="2">
-        <v>6799255.17</v>
+        <v>6837448.17</v>
       </c>
       <c r="G39" s="1">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H39" s="2">
-        <v>6322406.81</v>
+        <v>6606599.81</v>
       </c>
       <c r="I39" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J39" s="2">
-        <v>4065000</v>
+        <v>4311000</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2218,16 +2218,16 @@
         <v>74</v>
       </c>
       <c r="E42" s="1">
+        <v>21</v>
+      </c>
+      <c r="F42" s="2">
+        <v>3940464.38</v>
+      </c>
+      <c r="G42" s="1">
         <v>20</v>
       </c>
-      <c r="F42" s="2">
-        <v>3511199</v>
-      </c>
-      <c r="G42" s="1">
-        <v>19</v>
-      </c>
       <c r="H42" s="2">
-        <v>3510927</v>
+        <v>3940192.38</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
@@ -2474,16 +2474,16 @@
         <v>86</v>
       </c>
       <c r="E50" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F50" s="2">
-        <v>838812.48</v>
+        <v>896198.38</v>
       </c>
       <c r="G50" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H50" s="2">
-        <v>838812.48</v>
+        <v>896198.38</v>
       </c>
       <c r="I50" s="1">
         <v>0</v>
@@ -2570,16 +2570,16 @@
         <v>96</v>
       </c>
       <c r="E53" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F53" s="2">
-        <v>2884168.19</v>
+        <v>3036319.63</v>
       </c>
       <c r="G53" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H53" s="2">
-        <v>2884168.19</v>
+        <v>3036319.63</v>
       </c>
       <c r="I53" s="1">
         <v>0</v>
@@ -2762,16 +2762,16 @@
         <v>108</v>
       </c>
       <c r="E59" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F59" s="2">
-        <v>2008661</v>
+        <v>2084321</v>
       </c>
       <c r="G59" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H59" s="2">
-        <v>2008661</v>
+        <v>2084321</v>
       </c>
       <c r="I59" s="1">
         <v>0</v>
@@ -2858,16 +2858,16 @@
         <v>112</v>
       </c>
       <c r="E62" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F62" s="2">
-        <v>3898481.9</v>
+        <v>4051105.41</v>
       </c>
       <c r="G62" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H62" s="2">
-        <v>4044037.93</v>
+        <v>4196661.44</v>
       </c>
       <c r="I62" s="1">
         <v>0</v>
@@ -2960,16 +2960,16 @@
         <v>1353671.75</v>
       </c>
       <c r="G65" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H65" s="2">
-        <v>2011469.86</v>
+        <v>2111469.86</v>
       </c>
       <c r="I65" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J65" s="2">
-        <v>855000</v>
+        <v>955000</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3082,16 +3082,16 @@
         <v>129</v>
       </c>
       <c r="E69" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F69" s="2">
-        <v>1312807.89</v>
+        <v>1312900.89</v>
       </c>
       <c r="G69" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H69" s="2">
-        <v>1344807.89</v>
+        <v>1344900.89</v>
       </c>
       <c r="I69" s="1">
         <v>0</v>
@@ -3306,22 +3306,22 @@
         <v>142</v>
       </c>
       <c r="E76" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F76" s="2">
-        <v>6263881.55</v>
+        <v>6271170.05</v>
       </c>
       <c r="G76" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H76" s="2">
-        <v>3915028.8</v>
+        <v>4155028.8</v>
       </c>
       <c r="I76" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J76" s="2">
-        <v>1797000</v>
+        <v>2037000</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3402,10 +3402,10 @@
         <v>147</v>
       </c>
       <c r="E79" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F79" s="2">
-        <v>16252680.56</v>
+        <v>16302673.56</v>
       </c>
       <c r="G79" s="1">
         <v>21</v>
@@ -3626,16 +3626,16 @@
         <v>162</v>
       </c>
       <c r="E86" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F86" s="2">
-        <v>378881.69</v>
+        <v>548137.58</v>
       </c>
       <c r="G86" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H86" s="2">
-        <v>378881.69</v>
+        <v>548137.58</v>
       </c>
       <c r="I86" s="1">
         <v>0</v>
